--- a/a1.xlsx
+++ b/a1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Python\A1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3DBFD0A-4131-4C5A-BD94-942C94357066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826527D5-BA92-4F88-BB30-E4FDE86651A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7E88D728-6A9B-446A-9375-4F73E4FFD939}"/>
+    <workbookView xWindow="3225" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{7E88D728-6A9B-446A-9375-4F73E4FFD939}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
     <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Arkusz4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -564,7 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A2275A-8A5B-48E6-AE4A-09CEA744C778}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -698,7 +699,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,4 +825,107 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3E67A4-2A16-4284-B654-B07E3BB007A3}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1050</v>
+      </c>
+      <c r="B1">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1050</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>980</v>
+      </c>
+      <c r="B4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>960</v>
+      </c>
+      <c r="B5">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>940</v>
+      </c>
+      <c r="B6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>920</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>880</v>
+      </c>
+      <c r="B8">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>790</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>520</v>
+      </c>
+      <c r="B10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>455</v>
+      </c>
+      <c r="B11">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>